--- a/similarities/split_global/harmonic_similarity_timestamps_354.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_354.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:24.160000', '0:01:32.420000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:51.460000', '0:02:04.800000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=84.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=111.46']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A:min', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:min/A#', 'F:maj/C', 'C:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:17.573877', '0:00:21.207800')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
+          <t>('0:01:33.320000', '0:01:38.980000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=17.573877</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=93.32</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:23.200000', '0:01:31.140000')]</t>
+          <t>('0:02:53.380000', '0:02:56.020000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:01:02.748299', '0:01:07.543219')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=173.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=62.748299</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>['G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>['G', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:21.080000', '0:00:23.680000')]</t>
+          <t>('0:01:03.560000', '0:01:10.960000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:12.318208', '0:00:18.355396')]</t>
+          <t>('0:00:59.205240', '0:01:06.101566')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=63.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=12.318208']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=59.20524</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000')]</t>
+          <t>('0:00:25.480000', '0:00:32.800000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:02.360000', '0:00:05.680000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['Eb:7', 'Ab', 'Gb:dim7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Eb:7', 'Ab', 'A:dim7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:00:24.660000', '0:00:28.960000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:16.080000')]</t>
+          <t>('0:00:00.770000', '0:00:03.220000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=24.66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.77</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A'], ['A:7', 'D', 'G', 'D']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:11.120000'), ('0:00:58.040000', '0:01:06.880000')]</t>
+          <t>('0:00:04.860000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:04.063000', '0:00:08.399000'), ('0:00:28.197000', '0:00:34.358000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=58.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:41.849092', '0:01:48.664149')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:47.640000', '0:01:48.840000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=101.849092']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'D:7']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C', 'D:7/C']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:21.170000', '0:00:27.940000')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:11.760000')]</t>
+          <t>('0:00:07.700000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>isophonics_49</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
+          <t>['G/3', 'C', 'C:min', 'G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['C/b7', 'F', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+          <t>('0:00:24.400531', '0:00:31.761256')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+          <t>('0:00:37.053000', '0:00:43.202000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.400531</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=37.053</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:07.935986', '0:00:12.498707')]</t>
+          <t>('0:00:06.610000', '0:00:10.460000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:36.091000')]</t>
+          <t>('0:00:50.360000', '0:00:57.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=7.935986']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=6.61</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
+          <t>('0:00:00.800000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:44.300000', '0:01:07.100000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=44.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:10.380000', '0:00:25.180000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:42.520000', '0:00:50.160000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:45.962142', '0:00:51.024092')]</t>
+          <t>('0:00:11.380000', '0:00:24.380000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:03:28.740000', '0:03:31.740000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=45.962142']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=11.38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=208.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
